--- a/results/multilabel_native/41464/automl.xlsx
+++ b/results/multilabel_native/41464/automl.xlsx
@@ -483,11 +483,31 @@
           <t>autogluon</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.101 (0.054 ± 0.025)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00:03:57 (00:04:38 ± 00:00:18)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,17 +517,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.332 (0.253 Â± 0.033)</t>
+          <t>0.332 (0.253 ± 0.033)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:45 (00:00:55 Â± 00:00:06)</t>
+          <t>00:00:45 (00:00:55 ± 00:00:06)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:03 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +561,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.679 (0.565 Â± 0.068)</t>
+          <t>0.679 (0.565 ± 0.068)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:01 Â± 00:00:03)</t>
+          <t>00:04:57 (00:05:01 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:06 Â± 00:00:04)</t>
+          <t>00:00:00 (00:00:06 ± 00:00:04)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
